--- a/src/test/java/com/ebfs/testData/TestData.xlsx
+++ b/src/test/java/com/ebfs/testData/TestData.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alams/codecamper/EBFSTestCore/src/test/java/com/ebfs/testData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="12940" windowHeight="8260"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22905" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -53,9 +46,6 @@
   </si>
   <si>
     <t>Home_Page_Scenarios</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Chrome</t>
@@ -68,8 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -250,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -462,18 +451,18 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.1640625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -496,19 +485,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -543,7 +532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
